--- a/excel/data_excel/Sets.xlsx
+++ b/excel/data_excel/Sets.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A93332-548D-4EA6-A47E-686D4EF7460E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,15 +13,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Sets" localSheetId="0">Sheet1!$A$1:$BQ$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$BS$3</definedName>
+    <definedName name="Sets" localSheetId="0">Sheet1!$C$1:$BS$36</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Sets" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Sets" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\minieditor20190622\Editor20190622\project\dreamland\excel\data_excel\Sets.txt">
       <textFields count="69">
         <textField/>
@@ -99,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="190">
   <si>
     <t>index</t>
   </si>
@@ -645,12 +647,44 @@
   </si>
   <si>
     <t>McAuley's Folly</t>
+  </si>
+  <si>
+    <t>数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_Sets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,12 +733,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Sets" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Sets" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -750,7 +787,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -783,9 +820,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -818,6 +872,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -993,3034 +1064,3671 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BS36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="5.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>188</v>
+      </c>
+      <c r="R3" t="s">
+        <v>188</v>
+      </c>
+      <c r="S3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T3" t="s">
+        <v>186</v>
+      </c>
+      <c r="U3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V3" t="s">
+        <v>188</v>
+      </c>
+      <c r="W3" t="s">
+        <v>186</v>
+      </c>
+      <c r="X3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G4" t="s">
         <v>70</v>
       </c>
-      <c r="G2">
+      <c r="I4">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="J4">
         <v>15</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM4" t="s">
         <v>71</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
         <v>15</v>
       </c>
-      <c r="AN2">
+      <c r="AP4">
         <v>15</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ4" t="s">
         <v>72</v>
       </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>200</v>
       </c>
-      <c r="AR2">
+      <c r="AT4">
         <v>200</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU4" t="s">
         <v>73</v>
       </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
         <v>25</v>
       </c>
-      <c r="AV2">
+      <c r="AX4">
         <v>25</v>
       </c>
-      <c r="BQ2">
+      <c r="BS4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
         <v>74</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G5" t="s">
         <v>75</v>
       </c>
-      <c r="G3">
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM5" t="s">
         <v>76</v>
       </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
         <v>5</v>
       </c>
-      <c r="AN3">
+      <c r="AP5">
         <v>5</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AQ5" t="s">
         <v>77</v>
       </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>1</v>
       </c>
-      <c r="AR3">
+      <c r="AT5">
         <v>1</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AU5" t="s">
         <v>73</v>
       </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
         <v>25</v>
       </c>
-      <c r="AV3">
+      <c r="AX5">
         <v>25</v>
       </c>
-      <c r="BQ3">
+      <c r="BS5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
         <v>78</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G6" t="s">
         <v>79</v>
       </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="AM6" t="s">
         <v>79</v>
       </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>50</v>
-      </c>
-      <c r="AN4">
-        <v>50</v>
-      </c>
-      <c r="AO4" t="s">
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>50</v>
+      </c>
+      <c r="AP6">
+        <v>50</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>80</v>
       </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>6</v>
       </c>
-      <c r="AR4">
+      <c r="AT6">
         <v>6</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AU6" t="s">
         <v>81</v>
       </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
         <v>35</v>
       </c>
-      <c r="AV4">
+      <c r="AX6">
         <v>35</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AY6" t="s">
         <v>82</v>
       </c>
-      <c r="AY4">
+      <c r="BA6">
         <v>20</v>
       </c>
-      <c r="AZ4">
+      <c r="BB6">
         <v>20</v>
       </c>
-      <c r="BQ4">
+      <c r="BS6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
         <v>83</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G7" t="s">
         <v>79</v>
       </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
         <v>84</v>
       </c>
-      <c r="O5">
+      <c r="Q7">
         <v>20</v>
       </c>
-      <c r="P5">
+      <c r="R7">
         <v>20</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AM7" t="s">
         <v>85</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
         <v>20</v>
       </c>
-      <c r="AN5">
+      <c r="AP7">
         <v>20</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AQ7" t="s">
         <v>86</v>
       </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>10</v>
-      </c>
-      <c r="AR5">
-        <v>10</v>
-      </c>
-      <c r="AS5" t="s">
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>10</v>
+      </c>
+      <c r="AT7">
+        <v>10</v>
+      </c>
+      <c r="AU7" t="s">
         <v>87</v>
       </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>10</v>
-      </c>
-      <c r="AV5">
-        <v>10</v>
-      </c>
-      <c r="AW5" t="s">
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>10</v>
+      </c>
+      <c r="AX7">
+        <v>10</v>
+      </c>
+      <c r="AY7" t="s">
         <v>88</v>
       </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>10</v>
-      </c>
-      <c r="AZ5">
-        <v>10</v>
-      </c>
-      <c r="BA5" t="s">
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>10</v>
+      </c>
+      <c r="BB7">
+        <v>10</v>
+      </c>
+      <c r="BC7" t="s">
         <v>89</v>
       </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>10</v>
-      </c>
-      <c r="BD5">
-        <v>10</v>
-      </c>
-      <c r="BE5" t="s">
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>10</v>
+      </c>
+      <c r="BF7">
+        <v>10</v>
+      </c>
+      <c r="BG7" t="s">
         <v>90</v>
       </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
         <v>15</v>
       </c>
-      <c r="BH5">
+      <c r="BJ7">
         <v>15</v>
       </c>
-      <c r="BQ5">
+      <c r="BS7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G8" t="s">
         <v>71</v>
       </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="O8" t="s">
         <v>90</v>
       </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="AM8" t="s">
         <v>92</v>
       </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
         <v>5</v>
       </c>
-      <c r="AN6">
+      <c r="AP8">
         <v>5</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AQ8" t="s">
         <v>85</v>
       </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>10</v>
-      </c>
-      <c r="AR6">
-        <v>10</v>
-      </c>
-      <c r="AS6" t="s">
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>10</v>
+      </c>
+      <c r="AT8">
+        <v>10</v>
+      </c>
+      <c r="AU8" t="s">
         <v>93</v>
       </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
         <v>35</v>
       </c>
-      <c r="AV6">
+      <c r="AX8">
         <v>35</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AY8" t="s">
         <v>94</v>
       </c>
-      <c r="AY6">
+      <c r="BA8">
         <v>30</v>
       </c>
-      <c r="AZ6">
+      <c r="BB8">
         <v>30</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BC8" t="s">
         <v>84</v>
       </c>
-      <c r="BC6">
+      <c r="BE8">
         <v>20</v>
       </c>
-      <c r="BD6">
+      <c r="BF8">
         <v>20</v>
       </c>
-      <c r="BQ6">
+      <c r="BS8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>95</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
         <v>95</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G9" t="s">
         <v>96</v>
       </c>
-      <c r="G7">
+      <c r="I9">
         <v>75</v>
       </c>
-      <c r="H7">
+      <c r="J9">
         <v>75</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O9" t="s">
         <v>90</v>
       </c>
-      <c r="O7">
+      <c r="Q9">
         <v>15</v>
       </c>
-      <c r="P7">
+      <c r="R9">
         <v>15</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AM9" t="s">
         <v>97</v>
       </c>
-      <c r="AL7">
-        <v>50</v>
-      </c>
-      <c r="AM7">
+      <c r="AN9">
+        <v>50</v>
+      </c>
+      <c r="AO9">
         <v>15</v>
       </c>
-      <c r="AN7">
+      <c r="AP9">
         <v>20</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AQ9" t="s">
         <v>98</v>
       </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>1</v>
       </c>
-      <c r="AR7">
+      <c r="AT9">
         <v>1</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AU9" t="s">
         <v>99</v>
       </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>50</v>
-      </c>
-      <c r="AV7">
-        <v>50</v>
-      </c>
-      <c r="AW7" t="s">
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>50</v>
+      </c>
+      <c r="AX9">
+        <v>50</v>
+      </c>
+      <c r="AY9" t="s">
         <v>71</v>
       </c>
-      <c r="AY7">
-        <v>10</v>
-      </c>
-      <c r="AZ7">
-        <v>10</v>
-      </c>
-      <c r="BQ7">
+      <c r="BA9">
+        <v>10</v>
+      </c>
+      <c r="BB9">
+        <v>10</v>
+      </c>
+      <c r="BS9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>100</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
         <v>100</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G10" t="s">
         <v>96</v>
       </c>
-      <c r="G8">
+      <c r="I10">
         <v>75</v>
       </c>
-      <c r="H8">
+      <c r="J10">
         <v>75</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O10" t="s">
         <v>96</v>
       </c>
-      <c r="O8">
+      <c r="Q10">
         <v>125</v>
       </c>
-      <c r="P8">
+      <c r="R10">
         <v>125</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AM10" t="s">
         <v>92</v>
       </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
         <v>8</v>
       </c>
-      <c r="AN8">
+      <c r="AP10">
         <v>8</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AQ10" t="s">
         <v>101</v>
       </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>2</v>
       </c>
-      <c r="AR8">
+      <c r="AT10">
         <v>2</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AU10" t="s">
         <v>80</v>
       </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>10</v>
-      </c>
-      <c r="AV8">
-        <v>10</v>
-      </c>
-      <c r="AW8" t="s">
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>10</v>
+      </c>
+      <c r="AX10">
+        <v>10</v>
+      </c>
+      <c r="AY10" t="s">
         <v>102</v>
       </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
         <v>15</v>
       </c>
-      <c r="AZ8">
+      <c r="BB10">
         <v>15</v>
       </c>
-      <c r="BQ8">
+      <c r="BS10">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" t="s">
         <v>103</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G11" t="s">
         <v>104</v>
       </c>
-      <c r="G9">
+      <c r="I11">
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="J11">
         <v>20</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O11" t="s">
         <v>73</v>
       </c>
-      <c r="O9">
+      <c r="Q11">
         <v>25</v>
       </c>
-      <c r="P9">
+      <c r="R11">
         <v>25</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AM11" t="s">
         <v>96</v>
       </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
         <v>60</v>
       </c>
-      <c r="AN9">
+      <c r="AP11">
         <v>60</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AQ11" t="s">
         <v>105</v>
       </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>3</v>
       </c>
-      <c r="AR9">
+      <c r="AT11">
         <v>3</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AU11" t="s">
         <v>85</v>
       </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
         <v>25</v>
       </c>
-      <c r="AV9">
+      <c r="AX11">
         <v>25</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AY11" t="s">
         <v>106</v>
       </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>10</v>
-      </c>
-      <c r="AZ9">
-        <v>10</v>
-      </c>
-      <c r="BA9" t="s">
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>10</v>
+      </c>
+      <c r="BB11">
+        <v>10</v>
+      </c>
+      <c r="BC11" t="s">
         <v>107</v>
       </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
         <v>20</v>
       </c>
-      <c r="BD9">
+      <c r="BF11">
         <v>20</v>
       </c>
-      <c r="BQ9">
+      <c r="BS11">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>108</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C12" t="s">
         <v>108</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G12" t="s">
         <v>109</v>
       </c>
-      <c r="G10">
+      <c r="I12">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="J12">
         <v>15</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O12" t="s">
         <v>92</v>
       </c>
-      <c r="O10">
+      <c r="Q12">
         <v>5</v>
       </c>
-      <c r="P10">
+      <c r="R12">
         <v>5</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AM12" t="s">
         <v>110</v>
       </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
         <v>75</v>
       </c>
-      <c r="AN10">
+      <c r="AP12">
         <v>75</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AQ12" t="s">
         <v>85</v>
       </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>10</v>
-      </c>
-      <c r="AR10">
-        <v>10</v>
-      </c>
-      <c r="AS10" t="s">
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>10</v>
+      </c>
+      <c r="AT12">
+        <v>10</v>
+      </c>
+      <c r="AU12" t="s">
         <v>111</v>
       </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
         <v>35</v>
       </c>
-      <c r="AV10">
+      <c r="AX12">
         <v>35</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AY12" t="s">
         <v>80</v>
       </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
         <v>5</v>
       </c>
-      <c r="AZ10">
+      <c r="BB12">
         <v>5</v>
       </c>
-      <c r="BQ10">
+      <c r="BS12">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>112</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C13" t="s">
         <v>112</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G13" t="s">
         <v>92</v>
       </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
         <v>79</v>
       </c>
-      <c r="O11">
+      <c r="Q13">
         <v>100</v>
       </c>
-      <c r="P11">
+      <c r="R13">
         <v>100</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AM13" t="s">
         <v>70</v>
       </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
         <v>12</v>
       </c>
-      <c r="AN11">
+      <c r="AP13">
         <v>12</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AQ13" t="s">
         <v>75</v>
       </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>12</v>
       </c>
-      <c r="AR11">
+      <c r="AT13">
         <v>12</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AU13" t="s">
         <v>113</v>
       </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
         <v>7</v>
       </c>
-      <c r="AV11">
+      <c r="AX13">
         <v>7</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AY13" t="s">
         <v>114</v>
       </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
         <v>24</v>
       </c>
-      <c r="AZ11">
+      <c r="BB13">
         <v>24</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BC13" t="s">
         <v>107</v>
       </c>
-      <c r="BC11">
+      <c r="BE13">
         <v>20</v>
       </c>
-      <c r="BD11">
+      <c r="BF13">
         <v>20</v>
       </c>
-      <c r="BQ11">
+      <c r="BS13">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>115</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C14" t="s">
         <v>115</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G14" t="s">
         <v>116</v>
       </c>
-      <c r="F12">
+      <c r="H14">
         <v>80</v>
       </c>
-      <c r="G12">
+      <c r="I14">
         <v>25</v>
       </c>
-      <c r="H12">
+      <c r="J14">
         <v>25</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O14" t="s">
         <v>107</v>
       </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12">
-        <v>10</v>
-      </c>
-      <c r="AK12" t="s">
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="s">
         <v>93</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
         <v>20</v>
       </c>
-      <c r="AN12">
+      <c r="AP14">
         <v>20</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AQ14" t="s">
         <v>117</v>
       </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>1</v>
       </c>
-      <c r="AR12">
+      <c r="AT14">
         <v>1</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AU14" t="s">
         <v>118</v>
       </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
         <v>20</v>
       </c>
-      <c r="AV12">
+      <c r="AX14">
         <v>20</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AY14" t="s">
         <v>80</v>
       </c>
-      <c r="AY12">
+      <c r="BA14">
         <v>6</v>
       </c>
-      <c r="AZ12">
+      <c r="BB14">
         <v>6</v>
       </c>
-      <c r="BQ12">
+      <c r="BS14">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>119</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
         <v>119</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G15" t="s">
         <v>120</v>
       </c>
-      <c r="G13">
-        <v>50</v>
-      </c>
-      <c r="H13">
-        <v>50</v>
-      </c>
-      <c r="AK13" t="s">
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="AM15" t="s">
         <v>121</v>
       </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
         <v>75</v>
       </c>
-      <c r="AN13">
+      <c r="AP15">
         <v>75</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AQ15" t="s">
         <v>122</v>
       </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>16</v>
       </c>
-      <c r="AR13">
+      <c r="AT15">
         <v>16</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AU15" t="s">
         <v>123</v>
       </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
         <v>32</v>
       </c>
-      <c r="AV13">
+      <c r="AX15">
         <v>32</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AY15" t="s">
         <v>124</v>
       </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
         <v>75</v>
       </c>
-      <c r="AZ13">
+      <c r="BB15">
         <v>75</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BC15" t="s">
         <v>79</v>
       </c>
-      <c r="BC13">
+      <c r="BE15">
         <v>75</v>
       </c>
-      <c r="BD13">
+      <c r="BF15">
         <v>75</v>
       </c>
-      <c r="BQ13">
+      <c r="BS15">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>125</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C16" t="s">
         <v>125</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G16" t="s">
         <v>92</v>
       </c>
-      <c r="G14">
+      <c r="I16">
         <v>8</v>
       </c>
-      <c r="H14">
+      <c r="J16">
         <v>8</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AM16" t="s">
         <v>93</v>
       </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>40</v>
       </c>
-      <c r="AN14">
+      <c r="AP16">
         <v>40</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AQ16" t="s">
         <v>126</v>
       </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>10</v>
-      </c>
-      <c r="AR14">
-        <v>10</v>
-      </c>
-      <c r="AS14" t="s">
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>10</v>
+      </c>
+      <c r="AT16">
+        <v>10</v>
+      </c>
+      <c r="AU16" t="s">
         <v>85</v>
       </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
         <v>25</v>
       </c>
-      <c r="AV14">
+      <c r="AX16">
         <v>25</v>
       </c>
-      <c r="BQ14">
+      <c r="BS16">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>127</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C17" t="s">
         <v>127</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="O17" t="s">
         <v>107</v>
       </c>
-      <c r="O15">
-        <v>50</v>
-      </c>
-      <c r="P15">
-        <v>50</v>
-      </c>
-      <c r="AK15" t="s">
+      <c r="Q17">
+        <v>50</v>
+      </c>
+      <c r="R17">
+        <v>50</v>
+      </c>
+      <c r="AM17" t="s">
         <v>85</v>
       </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
         <v>25</v>
       </c>
-      <c r="AN15">
+      <c r="AP17">
         <v>25</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AQ17" t="s">
         <v>128</v>
       </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>1</v>
       </c>
-      <c r="AR15">
+      <c r="AT17">
         <v>1</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AU17" t="s">
         <v>129</v>
       </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
         <v>40</v>
       </c>
-      <c r="AV15">
+      <c r="AX17">
         <v>40</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AY17" t="s">
         <v>130</v>
       </c>
-      <c r="AY15">
+      <c r="BA17">
         <v>8</v>
       </c>
-      <c r="AZ15">
+      <c r="BB17">
         <v>8</v>
       </c>
-      <c r="BQ15">
+      <c r="BS17">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>131</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C18" t="s">
         <v>131</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G18" t="s">
         <v>71</v>
       </c>
-      <c r="G16">
+      <c r="I18">
         <v>5</v>
       </c>
-      <c r="H16">
+      <c r="J18">
         <v>5</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O18" t="s">
         <v>120</v>
       </c>
-      <c r="O16">
-        <v>50</v>
-      </c>
-      <c r="P16">
-        <v>50</v>
-      </c>
-      <c r="AK16" t="s">
+      <c r="Q18">
+        <v>50</v>
+      </c>
+      <c r="R18">
+        <v>50</v>
+      </c>
+      <c r="AM18" t="s">
         <v>132</v>
       </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
         <v>6</v>
       </c>
-      <c r="AN16">
+      <c r="AP18">
         <v>6</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AQ18" t="s">
         <v>133</v>
       </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>14</v>
       </c>
-      <c r="AR16">
+      <c r="AT18">
         <v>14</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AU18" t="s">
         <v>134</v>
       </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
         <v>100</v>
       </c>
-      <c r="AV16">
+      <c r="AX18">
         <v>100</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AY18" t="s">
         <v>77</v>
       </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
         <v>1</v>
       </c>
-      <c r="AZ16">
+      <c r="BB18">
         <v>1</v>
       </c>
-      <c r="BQ16">
+      <c r="BS18">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>135</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C19" t="s">
         <v>135</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G19" t="s">
         <v>107</v>
       </c>
-      <c r="G17">
+      <c r="I19">
         <v>25</v>
       </c>
-      <c r="H17">
+      <c r="J19">
         <v>25</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O19" t="s">
         <v>120</v>
       </c>
-      <c r="O17">
-        <v>50</v>
-      </c>
-      <c r="P17">
-        <v>50</v>
-      </c>
-      <c r="AK17" t="s">
+      <c r="Q19">
+        <v>50</v>
+      </c>
+      <c r="R19">
+        <v>50</v>
+      </c>
+      <c r="AM19" t="s">
         <v>136</v>
       </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
         <v>20</v>
       </c>
-      <c r="AN17">
+      <c r="AP19">
         <v>20</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AQ19" t="s">
         <v>80</v>
       </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>5</v>
       </c>
-      <c r="AR17">
+      <c r="AT19">
         <v>5</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AU19" t="s">
         <v>107</v>
       </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
         <v>25</v>
       </c>
-      <c r="AV17">
+      <c r="AX19">
         <v>25</v>
       </c>
-      <c r="BQ17">
+      <c r="BS19">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>137</v>
       </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>138</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="C19">
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21">
         <v>100</v>
       </c>
-      <c r="D19">
+      <c r="F21">
         <v>22</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G21" t="s">
         <v>105</v>
       </c>
-      <c r="G19">
+      <c r="I21">
         <v>15</v>
       </c>
-      <c r="H19">
+      <c r="J21">
         <v>15</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O21" t="s">
         <v>79</v>
       </c>
-      <c r="O19">
+      <c r="Q21">
         <v>200</v>
       </c>
-      <c r="P19">
+      <c r="R21">
         <v>200</v>
       </c>
-      <c r="U19" t="s">
+      <c r="W21" t="s">
         <v>102</v>
       </c>
-      <c r="W19">
+      <c r="Y21">
         <v>20</v>
       </c>
-      <c r="X19">
+      <c r="Z21">
         <v>20</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AM21" t="s">
         <v>85</v>
       </c>
-      <c r="AM19">
-        <v>50</v>
-      </c>
-      <c r="AN19">
-        <v>50</v>
-      </c>
-      <c r="AO19" t="s">
+      <c r="AO21">
+        <v>50</v>
+      </c>
+      <c r="AP21">
+        <v>50</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>139</v>
       </c>
-      <c r="AQ19">
+      <c r="AS21">
         <v>3</v>
       </c>
-      <c r="AR19">
+      <c r="AT21">
         <v>3</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AU21" t="s">
         <v>79</v>
       </c>
-      <c r="AU19">
+      <c r="AW21">
         <v>150</v>
       </c>
-      <c r="AV19">
+      <c r="AX21">
         <v>150</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AY21" t="s">
         <v>92</v>
       </c>
-      <c r="AY19">
+      <c r="BA21">
         <v>14</v>
       </c>
-      <c r="AZ19">
+      <c r="BB21">
         <v>14</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BC21" t="s">
         <v>80</v>
       </c>
-      <c r="BC19">
+      <c r="BE21">
         <v>14</v>
       </c>
-      <c r="BD19">
+      <c r="BF21">
         <v>14</v>
       </c>
-      <c r="BE19" t="s">
+      <c r="BG21" t="s">
         <v>140</v>
       </c>
-      <c r="BG19">
+      <c r="BI21">
         <v>30</v>
       </c>
-      <c r="BH19">
+      <c r="BJ21">
         <v>30</v>
       </c>
-      <c r="BI19" t="s">
+      <c r="BK21" t="s">
         <v>141</v>
       </c>
-      <c r="BK19">
+      <c r="BM21">
         <v>1</v>
       </c>
-      <c r="BL19">
+      <c r="BN21">
         <v>1</v>
       </c>
-      <c r="BQ19">
+      <c r="BS21">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>142</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C22" t="s">
         <v>142</v>
       </c>
-      <c r="C20">
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22">
         <v>100</v>
       </c>
-      <c r="D20">
+      <c r="F22">
         <v>29</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G22" t="s">
         <v>93</v>
       </c>
-      <c r="G20">
+      <c r="I22">
         <v>150</v>
       </c>
-      <c r="H20">
+      <c r="J22">
         <v>150</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O22" t="s">
         <v>129</v>
       </c>
-      <c r="O20">
-        <v>50</v>
-      </c>
-      <c r="P20">
-        <v>50</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="Q22">
+        <v>50</v>
+      </c>
+      <c r="R22">
+        <v>50</v>
+      </c>
+      <c r="W22" t="s">
         <v>92</v>
       </c>
-      <c r="W20">
-        <v>10</v>
-      </c>
-      <c r="X20">
-        <v>10</v>
-      </c>
-      <c r="AK20" t="s">
+      <c r="Y22">
+        <v>10</v>
+      </c>
+      <c r="Z22">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="s">
         <v>85</v>
       </c>
-      <c r="AM20">
-        <v>50</v>
-      </c>
-      <c r="AN20">
-        <v>50</v>
-      </c>
-      <c r="AO20" t="s">
+      <c r="AO22">
+        <v>50</v>
+      </c>
+      <c r="AP22">
+        <v>50</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>143</v>
       </c>
-      <c r="AQ20">
+      <c r="AS22">
         <v>3</v>
       </c>
-      <c r="AR20">
+      <c r="AT22">
         <v>3</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AU22" t="s">
         <v>79</v>
       </c>
-      <c r="AU20">
+      <c r="AW22">
         <v>150</v>
       </c>
-      <c r="AV20">
+      <c r="AX22">
         <v>150</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AY22" t="s">
         <v>80</v>
       </c>
-      <c r="AY20">
-        <v>10</v>
-      </c>
-      <c r="AZ20">
-        <v>10</v>
-      </c>
-      <c r="BA20" t="s">
+      <c r="BA22">
+        <v>10</v>
+      </c>
+      <c r="BB22">
+        <v>10</v>
+      </c>
+      <c r="BC22" t="s">
         <v>107</v>
       </c>
-      <c r="BC20">
+      <c r="BE22">
         <v>150</v>
       </c>
-      <c r="BD20">
+      <c r="BF22">
         <v>150</v>
       </c>
-      <c r="BE20" t="s">
+      <c r="BG22" t="s">
         <v>144</v>
       </c>
-      <c r="BG20">
+      <c r="BI22">
         <v>350</v>
       </c>
-      <c r="BH20">
+      <c r="BJ22">
         <v>350</v>
       </c>
-      <c r="BI20" t="s">
+      <c r="BK22" t="s">
         <v>145</v>
       </c>
-      <c r="BJ20" t="s">
+      <c r="BL22" t="s">
         <v>146</v>
       </c>
-      <c r="BK20">
+      <c r="BM22">
         <v>1</v>
       </c>
-      <c r="BL20">
+      <c r="BN22">
         <v>1</v>
       </c>
-      <c r="BQ20">
+      <c r="BS22">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>147</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C23" t="s">
         <v>147</v>
       </c>
-      <c r="C21">
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23">
         <v>100</v>
       </c>
-      <c r="D21">
+      <c r="F23">
         <v>37</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G23" t="s">
         <v>96</v>
       </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="H21">
-        <v>50</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="I23">
+        <v>50</v>
+      </c>
+      <c r="J23">
+        <v>50</v>
+      </c>
+      <c r="O23" t="s">
         <v>96</v>
       </c>
-      <c r="O21">
+      <c r="Q23">
         <v>75</v>
       </c>
-      <c r="P21">
+      <c r="R23">
         <v>75</v>
       </c>
-      <c r="U21" t="s">
+      <c r="W23" t="s">
         <v>96</v>
       </c>
-      <c r="W21">
+      <c r="Y23">
         <v>125</v>
       </c>
-      <c r="X21">
+      <c r="Z23">
         <v>125</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AE23" t="s">
         <v>96</v>
       </c>
-      <c r="AE21">
+      <c r="AG23">
         <v>200</v>
       </c>
-      <c r="AF21">
+      <c r="AH23">
         <v>200</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AM23" t="s">
         <v>85</v>
       </c>
-      <c r="AM21">
-        <v>50</v>
-      </c>
-      <c r="AN21">
-        <v>50</v>
-      </c>
-      <c r="AO21" t="s">
+      <c r="AO23">
+        <v>50</v>
+      </c>
+      <c r="AP23">
+        <v>50</v>
+      </c>
+      <c r="AQ23" t="s">
         <v>148</v>
       </c>
-      <c r="AQ21">
+      <c r="AS23">
         <v>3</v>
       </c>
-      <c r="AR21">
+      <c r="AT23">
         <v>3</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AU23" t="s">
         <v>120</v>
       </c>
-      <c r="AU21">
+      <c r="AW23">
         <v>150</v>
       </c>
-      <c r="AV21">
+      <c r="AX23">
         <v>150</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AY23" t="s">
         <v>105</v>
       </c>
-      <c r="AY21">
-        <v>10</v>
-      </c>
-      <c r="AZ21">
-        <v>10</v>
-      </c>
-      <c r="BA21" t="s">
+      <c r="BA23">
+        <v>10</v>
+      </c>
+      <c r="BB23">
+        <v>10</v>
+      </c>
+      <c r="BC23" t="s">
         <v>145</v>
       </c>
-      <c r="BB21" t="s">
+      <c r="BD23" t="s">
         <v>146</v>
       </c>
-      <c r="BC21">
+      <c r="BE23">
         <v>1</v>
       </c>
-      <c r="BD21">
+      <c r="BF23">
         <v>1</v>
       </c>
-      <c r="BQ21">
+      <c r="BS23">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>149</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C24" t="s">
         <v>149</v>
       </c>
-      <c r="C22">
+      <c r="D24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24">
         <v>100</v>
       </c>
-      <c r="D22">
+      <c r="F24">
         <v>26</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G24" t="s">
         <v>150</v>
       </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="O24" t="s">
         <v>129</v>
       </c>
-      <c r="O22">
+      <c r="Q24">
         <v>65</v>
       </c>
-      <c r="P22">
+      <c r="R24">
         <v>65</v>
       </c>
-      <c r="U22" t="s">
+      <c r="W24" t="s">
         <v>151</v>
       </c>
-      <c r="W22">
+      <c r="Y24">
         <v>25</v>
       </c>
-      <c r="X22">
+      <c r="Z24">
         <v>25</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AM24" t="s">
         <v>85</v>
       </c>
-      <c r="AM22">
-        <v>50</v>
-      </c>
-      <c r="AN22">
-        <v>50</v>
-      </c>
-      <c r="AO22" t="s">
+      <c r="AO24">
+        <v>50</v>
+      </c>
+      <c r="AP24">
+        <v>50</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>152</v>
       </c>
-      <c r="AQ22">
+      <c r="AS24">
         <v>3</v>
       </c>
-      <c r="AR22">
+      <c r="AT24">
         <v>3</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AU24" t="s">
         <v>79</v>
       </c>
-      <c r="AU22">
+      <c r="AW24">
         <v>150</v>
       </c>
-      <c r="AV22">
+      <c r="AX24">
         <v>150</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AY24" t="s">
         <v>120</v>
       </c>
-      <c r="AY22">
+      <c r="BA24">
         <v>150</v>
       </c>
-      <c r="AZ22">
+      <c r="BB24">
         <v>150</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BC24" t="s">
         <v>153</v>
       </c>
-      <c r="BC22">
-        <v>50</v>
-      </c>
-      <c r="BD22">
-        <v>50</v>
-      </c>
-      <c r="BE22" t="s">
+      <c r="BE24">
+        <v>50</v>
+      </c>
+      <c r="BF24">
+        <v>50</v>
+      </c>
+      <c r="BG24" t="s">
         <v>145</v>
       </c>
-      <c r="BF22" t="s">
+      <c r="BH24" t="s">
         <v>146</v>
       </c>
-      <c r="BG22">
+      <c r="BI24">
         <v>1</v>
       </c>
-      <c r="BH22">
+      <c r="BJ24">
         <v>1</v>
       </c>
-      <c r="BQ22">
+      <c r="BS24">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>154</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C25" t="s">
         <v>154</v>
       </c>
-      <c r="C23">
+      <c r="D25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25">
         <v>100</v>
       </c>
-      <c r="D23">
+      <c r="F25">
         <v>44</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="G23">
+      <c r="I25">
         <v>20</v>
       </c>
-      <c r="H23">
+      <c r="J25">
         <v>20</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O25" t="s">
         <v>90</v>
       </c>
-      <c r="O23">
+      <c r="Q25">
         <v>30</v>
       </c>
-      <c r="P23">
+      <c r="R25">
         <v>30</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AM25" t="s">
         <v>85</v>
       </c>
-      <c r="AM23">
-        <v>50</v>
-      </c>
-      <c r="AN23">
-        <v>50</v>
-      </c>
-      <c r="AO23" t="s">
+      <c r="AO25">
+        <v>50</v>
+      </c>
+      <c r="AP25">
+        <v>50</v>
+      </c>
+      <c r="AQ25" t="s">
         <v>101</v>
       </c>
-      <c r="AQ23">
+      <c r="AS25">
         <v>3</v>
       </c>
-      <c r="AR23">
+      <c r="AT25">
         <v>3</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AU25" t="s">
         <v>96</v>
       </c>
-      <c r="AU23">
+      <c r="AW25">
         <v>200</v>
       </c>
-      <c r="AV23">
+      <c r="AX25">
         <v>200</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AY25" t="s">
         <v>120</v>
       </c>
-      <c r="AY23">
+      <c r="BA25">
         <v>150</v>
       </c>
-      <c r="AZ23">
+      <c r="BB25">
         <v>150</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BC25" t="s">
         <v>145</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BD25" t="s">
         <v>146</v>
       </c>
-      <c r="BC23">
+      <c r="BE25">
         <v>1</v>
       </c>
-      <c r="BD23">
+      <c r="BF25">
         <v>1</v>
       </c>
-      <c r="BE23" t="s">
+      <c r="BG25" t="s">
         <v>151</v>
       </c>
-      <c r="BG23">
+      <c r="BI25">
         <v>30</v>
       </c>
-      <c r="BH23">
+      <c r="BJ25">
         <v>30</v>
       </c>
-      <c r="BQ23">
+      <c r="BS25">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>155</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C26" t="s">
         <v>155</v>
       </c>
-      <c r="C24">
+      <c r="D26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26">
         <v>100</v>
       </c>
-      <c r="D24">
+      <c r="F26">
         <v>32</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G26" t="s">
         <v>130</v>
       </c>
-      <c r="G24">
+      <c r="I26">
         <v>15</v>
       </c>
-      <c r="H24">
+      <c r="J26">
         <v>15</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K26" t="s">
         <v>156</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L26" t="s">
         <v>157</v>
       </c>
-      <c r="K24">
+      <c r="M26">
         <v>18</v>
       </c>
-      <c r="L24">
+      <c r="N26">
         <v>18</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O26" t="s">
         <v>130</v>
       </c>
-      <c r="O24">
+      <c r="Q26">
         <v>15</v>
       </c>
-      <c r="P24">
+      <c r="R26">
         <v>15</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S26" t="s">
         <v>156</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T26" t="s">
         <v>158</v>
       </c>
-      <c r="S24">
+      <c r="U26">
         <v>13</v>
       </c>
-      <c r="T24">
+      <c r="V26">
         <v>13</v>
       </c>
-      <c r="U24" t="s">
+      <c r="W26" t="s">
         <v>130</v>
       </c>
-      <c r="W24">
+      <c r="Y26">
         <v>15</v>
       </c>
-      <c r="X24">
+      <c r="Z26">
         <v>15</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AA26" t="s">
         <v>156</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AB26" t="s">
         <v>159</v>
       </c>
-      <c r="AA24">
-        <v>10</v>
-      </c>
-      <c r="AB24">
-        <v>10</v>
-      </c>
-      <c r="AK24" t="s">
+      <c r="AC26">
+        <v>10</v>
+      </c>
+      <c r="AD26">
+        <v>10</v>
+      </c>
+      <c r="AM26" t="s">
         <v>85</v>
       </c>
-      <c r="AM24">
-        <v>50</v>
-      </c>
-      <c r="AN24">
-        <v>50</v>
-      </c>
-      <c r="AO24" t="s">
+      <c r="AO26">
+        <v>50</v>
+      </c>
+      <c r="AP26">
+        <v>50</v>
+      </c>
+      <c r="AQ26" t="s">
         <v>117</v>
       </c>
-      <c r="AQ24">
+      <c r="AS26">
         <v>3</v>
       </c>
-      <c r="AR24">
+      <c r="AT26">
         <v>3</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AU26" t="s">
         <v>107</v>
       </c>
-      <c r="AU24">
+      <c r="AW26">
         <v>100</v>
       </c>
-      <c r="AV24">
+      <c r="AX26">
         <v>100</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AY26" t="s">
         <v>79</v>
       </c>
-      <c r="AY24">
+      <c r="BA26">
         <v>200</v>
       </c>
-      <c r="AZ24">
+      <c r="BB26">
         <v>200</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BC26" t="s">
         <v>145</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BD26" t="s">
         <v>160</v>
       </c>
-      <c r="BC24">
+      <c r="BE26">
         <v>1</v>
       </c>
-      <c r="BD24">
+      <c r="BF26">
         <v>1</v>
       </c>
-      <c r="BE24" t="s">
+      <c r="BG26" t="s">
         <v>130</v>
       </c>
-      <c r="BG24">
+      <c r="BI26">
         <v>15</v>
       </c>
-      <c r="BH24">
+      <c r="BJ26">
         <v>15</v>
       </c>
-      <c r="BI24" t="s">
+      <c r="BK26" t="s">
         <v>156</v>
       </c>
-      <c r="BJ24" t="s">
+      <c r="BL26" t="s">
         <v>161</v>
       </c>
-      <c r="BK24">
+      <c r="BM26">
         <v>3</v>
       </c>
-      <c r="BL24">
+      <c r="BN26">
         <v>3</v>
       </c>
-      <c r="BM24" t="s">
+      <c r="BO26" t="s">
         <v>92</v>
       </c>
-      <c r="BO24">
+      <c r="BQ26">
         <v>20</v>
       </c>
-      <c r="BP24">
+      <c r="BR26">
         <v>20</v>
       </c>
-      <c r="BQ24">
+      <c r="BS26">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
         <v>162</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C27" t="s">
         <v>162</v>
       </c>
-      <c r="C25">
+      <c r="D27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27">
         <v>100</v>
       </c>
-      <c r="D25">
+      <c r="F27">
         <v>21</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G27" t="s">
         <v>71</v>
       </c>
-      <c r="G25">
+      <c r="I27">
         <v>20</v>
       </c>
-      <c r="H25">
+      <c r="J27">
         <v>20</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O27" t="s">
         <v>90</v>
       </c>
-      <c r="O25">
+      <c r="Q27">
         <v>30</v>
       </c>
-      <c r="P25">
+      <c r="R27">
         <v>30</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AM27" t="s">
         <v>85</v>
       </c>
-      <c r="AM25">
-        <v>50</v>
-      </c>
-      <c r="AN25">
-        <v>50</v>
-      </c>
-      <c r="AO25" t="s">
+      <c r="AO27">
+        <v>50</v>
+      </c>
+      <c r="AP27">
+        <v>50</v>
+      </c>
+      <c r="AQ27" t="s">
         <v>163</v>
       </c>
-      <c r="AQ25">
+      <c r="AS27">
         <v>3</v>
       </c>
-      <c r="AR25">
+      <c r="AT27">
         <v>3</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AU27" t="s">
         <v>79</v>
       </c>
-      <c r="AU25">
+      <c r="AW27">
         <v>100</v>
       </c>
-      <c r="AV25">
+      <c r="AX27">
         <v>100</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AY27" t="s">
         <v>96</v>
       </c>
-      <c r="AY25">
+      <c r="BA27">
         <v>100</v>
       </c>
-      <c r="AZ25">
+      <c r="BB27">
         <v>100</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BC27" t="s">
         <v>129</v>
       </c>
-      <c r="BC25">
+      <c r="BE27">
         <v>100</v>
       </c>
-      <c r="BD25">
+      <c r="BF27">
         <v>100</v>
       </c>
-      <c r="BE25" t="s">
+      <c r="BG27" t="s">
         <v>145</v>
       </c>
-      <c r="BF25" t="s">
+      <c r="BH27" t="s">
         <v>146</v>
       </c>
-      <c r="BG25">
+      <c r="BI27">
         <v>1</v>
       </c>
-      <c r="BH25">
+      <c r="BJ27">
         <v>1</v>
       </c>
-      <c r="BQ25">
+      <c r="BS27">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>164</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C28" t="s">
         <v>164</v>
       </c>
-      <c r="C26">
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28">
         <v>100</v>
       </c>
-      <c r="D26">
+      <c r="F28">
         <v>39</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G28" t="s">
         <v>79</v>
       </c>
-      <c r="G26">
+      <c r="I28">
         <v>150</v>
       </c>
-      <c r="H26">
+      <c r="J28">
         <v>150</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O28" t="s">
         <v>116</v>
       </c>
-      <c r="N26">
+      <c r="P28">
         <v>75</v>
       </c>
-      <c r="O26">
+      <c r="Q28">
         <v>75</v>
       </c>
-      <c r="P26">
+      <c r="R28">
         <v>75</v>
       </c>
-      <c r="U26" t="s">
+      <c r="W28" t="s">
         <v>71</v>
       </c>
-      <c r="W26">
-        <v>10</v>
-      </c>
-      <c r="X26">
-        <v>10</v>
-      </c>
-      <c r="AC26" t="s">
+      <c r="Y28">
+        <v>10</v>
+      </c>
+      <c r="Z28">
+        <v>10</v>
+      </c>
+      <c r="AE28" t="s">
         <v>90</v>
       </c>
-      <c r="AE26">
-        <v>10</v>
-      </c>
-      <c r="AF26">
-        <v>10</v>
-      </c>
-      <c r="AK26" t="s">
+      <c r="AG28">
+        <v>10</v>
+      </c>
+      <c r="AH28">
+        <v>10</v>
+      </c>
+      <c r="AM28" t="s">
         <v>85</v>
       </c>
-      <c r="AM26">
-        <v>50</v>
-      </c>
-      <c r="AN26">
-        <v>50</v>
-      </c>
-      <c r="AO26" t="s">
+      <c r="AO28">
+        <v>50</v>
+      </c>
+      <c r="AP28">
+        <v>50</v>
+      </c>
+      <c r="AQ28" t="s">
         <v>165</v>
       </c>
-      <c r="AQ26">
+      <c r="AS28">
         <v>2</v>
       </c>
-      <c r="AR26">
+      <c r="AT28">
         <v>2</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AU28" t="s">
         <v>107</v>
       </c>
-      <c r="AU26">
+      <c r="AW28">
         <v>100</v>
       </c>
-      <c r="AV26">
+      <c r="AX28">
         <v>100</v>
       </c>
-      <c r="BQ26">
+      <c r="BS28">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
         <v>166</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C29" t="s">
         <v>166</v>
       </c>
-      <c r="C27">
+      <c r="D29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29">
         <v>100</v>
       </c>
-      <c r="D27">
+      <c r="F29">
         <v>55</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G29" t="s">
         <v>167</v>
       </c>
-      <c r="G27">
-        <v>50</v>
-      </c>
-      <c r="H27">
-        <v>50</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="I29">
+        <v>50</v>
+      </c>
+      <c r="J29">
+        <v>50</v>
+      </c>
+      <c r="O29" t="s">
         <v>150</v>
       </c>
-      <c r="O27">
+      <c r="Q29">
         <v>20</v>
       </c>
-      <c r="P27">
+      <c r="R29">
         <v>20</v>
       </c>
-      <c r="U27" t="s">
+      <c r="W29" t="s">
         <v>104</v>
       </c>
-      <c r="W27">
+      <c r="Y29">
         <v>30</v>
       </c>
-      <c r="X27">
+      <c r="Z29">
         <v>30</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AM29" t="s">
         <v>85</v>
       </c>
-      <c r="AM27">
-        <v>50</v>
-      </c>
-      <c r="AN27">
-        <v>50</v>
-      </c>
-      <c r="AO27" t="s">
+      <c r="AO29">
+        <v>50</v>
+      </c>
+      <c r="AP29">
+        <v>50</v>
+      </c>
+      <c r="AQ29" t="s">
         <v>165</v>
       </c>
-      <c r="AQ27">
+      <c r="AS29">
         <v>2</v>
       </c>
-      <c r="AR27">
+      <c r="AT29">
         <v>2</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AU29" t="s">
         <v>77</v>
       </c>
-      <c r="AU27">
+      <c r="AW29">
         <v>1</v>
       </c>
-      <c r="AV27">
+      <c r="AX29">
         <v>1</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AY29" t="s">
         <v>168</v>
       </c>
-      <c r="AY27">
+      <c r="BA29">
         <v>5</v>
       </c>
-      <c r="AZ27">
+      <c r="BB29">
         <v>5</v>
       </c>
-      <c r="BQ27">
+      <c r="BS29">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
         <v>169</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C30" t="s">
         <v>169</v>
       </c>
-      <c r="C28">
+      <c r="D30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30">
         <v>100</v>
       </c>
-      <c r="D28">
+      <c r="F30">
         <v>41</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G30" t="s">
         <v>120</v>
       </c>
-      <c r="G28">
+      <c r="I30">
         <v>35</v>
       </c>
-      <c r="H28">
+      <c r="J30">
         <v>35</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O30" t="s">
         <v>75</v>
       </c>
-      <c r="O28">
+      <c r="Q30">
         <v>5</v>
       </c>
-      <c r="P28">
+      <c r="R30">
         <v>5</v>
       </c>
-      <c r="U28" t="s">
+      <c r="W30" t="s">
         <v>79</v>
       </c>
-      <c r="W28">
+      <c r="Y30">
         <v>100</v>
       </c>
-      <c r="X28">
+      <c r="Z30">
         <v>100</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AM30" t="s">
         <v>120</v>
       </c>
-      <c r="AM28">
-        <v>50</v>
-      </c>
-      <c r="AN28">
-        <v>50</v>
-      </c>
-      <c r="AO28" t="s">
+      <c r="AO30">
+        <v>50</v>
+      </c>
+      <c r="AP30">
+        <v>50</v>
+      </c>
+      <c r="AQ30" t="s">
         <v>90</v>
       </c>
-      <c r="AQ28">
-        <v>10</v>
-      </c>
-      <c r="AR28">
-        <v>10</v>
-      </c>
-      <c r="AS28" t="s">
+      <c r="AS30">
+        <v>10</v>
+      </c>
+      <c r="AT30">
+        <v>10</v>
+      </c>
+      <c r="AU30" t="s">
         <v>71</v>
       </c>
-      <c r="AU28">
+      <c r="AW30">
         <v>20</v>
       </c>
-      <c r="AV28">
+      <c r="AX30">
         <v>20</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="AY30" t="s">
         <v>79</v>
       </c>
-      <c r="AY28">
+      <c r="BA30">
         <v>100</v>
       </c>
-      <c r="AZ28">
+      <c r="BB30">
         <v>100</v>
       </c>
-      <c r="BA28" t="s">
+      <c r="BC30" t="s">
         <v>85</v>
       </c>
-      <c r="BC28">
+      <c r="BE30">
         <v>15</v>
       </c>
-      <c r="BD28">
+      <c r="BF30">
         <v>15</v>
       </c>
-      <c r="BE28" t="s">
+      <c r="BG30" t="s">
         <v>129</v>
       </c>
-      <c r="BF28">
-        <v>0</v>
-      </c>
-      <c r="BG28">
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
         <v>80</v>
       </c>
-      <c r="BH28">
+      <c r="BJ30">
         <v>80</v>
       </c>
-      <c r="BQ28">
+      <c r="BS30">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
         <v>170</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C31" t="s">
         <v>170</v>
       </c>
-      <c r="C29">
+      <c r="D31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31">
         <v>100</v>
       </c>
-      <c r="D29">
+      <c r="F31">
         <v>28</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G31" t="s">
         <v>79</v>
       </c>
-      <c r="G29">
+      <c r="I31">
         <v>100</v>
       </c>
-      <c r="H29">
+      <c r="J31">
         <v>100</v>
       </c>
-      <c r="M29" t="s">
+      <c r="O31" t="s">
         <v>79</v>
       </c>
-      <c r="O29">
+      <c r="Q31">
         <v>200</v>
       </c>
-      <c r="P29">
+      <c r="R31">
         <v>200</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AM31" t="s">
         <v>165</v>
       </c>
-      <c r="AM29">
+      <c r="AO31">
         <v>2</v>
       </c>
-      <c r="AN29">
+      <c r="AP31">
         <v>2</v>
       </c>
-      <c r="AO29" t="s">
+      <c r="AQ31" t="s">
         <v>92</v>
       </c>
-      <c r="AQ29">
+      <c r="AS31">
         <v>20</v>
       </c>
-      <c r="AR29">
+      <c r="AT31">
         <v>20</v>
       </c>
-      <c r="AS29" t="s">
+      <c r="AU31" t="s">
         <v>171</v>
       </c>
-      <c r="AU29">
+      <c r="AW31">
         <v>30</v>
       </c>
-      <c r="AV29">
+      <c r="AX31">
         <v>30</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="AY31" t="s">
         <v>85</v>
       </c>
-      <c r="AY29">
+      <c r="BA31">
         <v>30</v>
       </c>
-      <c r="AZ29">
+      <c r="BB31">
         <v>30</v>
       </c>
-      <c r="BQ29">
+      <c r="BS31">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
         <v>172</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C32" t="s">
         <v>172</v>
       </c>
-      <c r="C30">
+      <c r="D32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32">
         <v>100</v>
       </c>
-      <c r="D30">
+      <c r="F32">
         <v>34</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G32" t="s">
         <v>171</v>
       </c>
-      <c r="G30">
+      <c r="I32">
         <v>40</v>
       </c>
-      <c r="H30">
+      <c r="J32">
         <v>40</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AM32" t="s">
         <v>85</v>
       </c>
-      <c r="AM30">
+      <c r="AO32">
         <v>30</v>
       </c>
-      <c r="AN30">
+      <c r="AP32">
         <v>30</v>
       </c>
-      <c r="AO30" t="s">
+      <c r="AQ32" t="s">
         <v>92</v>
       </c>
-      <c r="AQ30">
+      <c r="AS32">
         <v>15</v>
       </c>
-      <c r="AR30">
+      <c r="AT32">
         <v>15</v>
       </c>
-      <c r="AS30" t="s">
+      <c r="AU32" t="s">
         <v>173</v>
       </c>
-      <c r="AU30">
+      <c r="AW32">
         <v>27</v>
       </c>
-      <c r="AV30">
+      <c r="AX32">
         <v>27</v>
       </c>
-      <c r="BQ30">
+      <c r="BS32">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
         <v>174</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C33" t="s">
         <v>174</v>
       </c>
-      <c r="C31">
+      <c r="D33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33">
         <v>100</v>
       </c>
-      <c r="D31">
-        <v>50</v>
-      </c>
-      <c r="AK31" t="s">
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="AM33" t="s">
         <v>104</v>
       </c>
-      <c r="AM31">
+      <c r="AO33">
         <v>20</v>
       </c>
-      <c r="AN31">
+      <c r="AP33">
         <v>20</v>
       </c>
-      <c r="AO31" t="s">
+      <c r="AQ33" t="s">
         <v>165</v>
       </c>
-      <c r="AQ31">
+      <c r="AS33">
         <v>2</v>
       </c>
-      <c r="AR31">
+      <c r="AT33">
         <v>2</v>
       </c>
-      <c r="AS31" t="s">
+      <c r="AU33" t="s">
         <v>96</v>
       </c>
-      <c r="AU31">
+      <c r="AW33">
         <v>200</v>
       </c>
-      <c r="AV31">
+      <c r="AX33">
         <v>200</v>
       </c>
-      <c r="AW31" t="s">
+      <c r="AY33" t="s">
         <v>79</v>
       </c>
-      <c r="AY31">
+      <c r="BA33">
         <v>25</v>
       </c>
-      <c r="AZ31">
+      <c r="BB33">
         <v>25</v>
       </c>
-      <c r="BA31" t="s">
+      <c r="BC33" t="s">
         <v>72</v>
       </c>
-      <c r="BC31">
+      <c r="BE33">
         <v>200</v>
       </c>
-      <c r="BD31">
+      <c r="BF33">
         <v>200</v>
       </c>
-      <c r="BE31" t="s">
+      <c r="BG33" t="s">
         <v>175</v>
       </c>
-      <c r="BG31">
+      <c r="BI33">
         <v>200</v>
       </c>
-      <c r="BH31">
+      <c r="BJ33">
         <v>200</v>
       </c>
-      <c r="BQ31">
+      <c r="BS33">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
         <v>176</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C34" t="s">
         <v>176</v>
       </c>
-      <c r="C32">
+      <c r="D34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34">
         <v>100</v>
       </c>
-      <c r="D32">
+      <c r="F34">
         <v>20</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G34" t="s">
         <v>102</v>
       </c>
-      <c r="G32">
+      <c r="I34">
         <v>25</v>
       </c>
-      <c r="H32">
+      <c r="J34">
         <v>25</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AM34" t="s">
         <v>177</v>
       </c>
-      <c r="AM32">
+      <c r="AO34">
         <v>100</v>
       </c>
-      <c r="AN32">
+      <c r="AP34">
         <v>100</v>
       </c>
-      <c r="AO32" t="s">
+      <c r="AQ34" t="s">
         <v>71</v>
       </c>
-      <c r="AQ32">
+      <c r="AS34">
         <v>20</v>
       </c>
-      <c r="AR32">
+      <c r="AT34">
         <v>20</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="AU34" t="s">
         <v>110</v>
       </c>
-      <c r="AU32">
+      <c r="AW34">
         <v>100</v>
       </c>
-      <c r="AV32">
+      <c r="AX34">
         <v>100</v>
       </c>
-      <c r="AW32" t="s">
+      <c r="AY34" t="s">
         <v>129</v>
       </c>
-      <c r="AY32">
+      <c r="BA34">
         <v>100</v>
       </c>
-      <c r="AZ32">
+      <c r="BB34">
         <v>100</v>
       </c>
-      <c r="BA32" t="s">
+      <c r="BC34" t="s">
         <v>178</v>
       </c>
-      <c r="BB32">
+      <c r="BD34">
         <v>42</v>
       </c>
-      <c r="BC32">
+      <c r="BE34">
         <v>25</v>
       </c>
-      <c r="BD32">
+      <c r="BF34">
         <v>5</v>
       </c>
-      <c r="BE32" t="s">
+      <c r="BG34" t="s">
         <v>179</v>
       </c>
-      <c r="BG32">
+      <c r="BI34">
         <v>30</v>
       </c>
-      <c r="BH32">
+      <c r="BJ34">
         <v>30</v>
       </c>
-      <c r="BQ32">
+      <c r="BS34">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
         <v>180</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C35" t="s">
         <v>180</v>
       </c>
-      <c r="C33">
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35">
         <v>100</v>
       </c>
-      <c r="D33">
+      <c r="F35">
         <v>43</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G35" t="s">
         <v>79</v>
       </c>
-      <c r="G33">
+      <c r="I35">
         <v>175</v>
       </c>
-      <c r="H33">
+      <c r="J35">
         <v>175</v>
       </c>
-      <c r="AK33" t="s">
+      <c r="AM35" t="s">
         <v>165</v>
       </c>
-      <c r="AM33">
+      <c r="AO35">
         <v>1</v>
       </c>
-      <c r="AN33">
+      <c r="AP35">
         <v>1</v>
       </c>
-      <c r="AO33" t="s">
+      <c r="AQ35" t="s">
         <v>150</v>
       </c>
-      <c r="AQ33">
-        <v>10</v>
-      </c>
-      <c r="AR33">
-        <v>10</v>
-      </c>
-      <c r="AS33" t="s">
+      <c r="AS35">
+        <v>10</v>
+      </c>
+      <c r="AT35">
+        <v>10</v>
+      </c>
+      <c r="AU35" t="s">
         <v>90</v>
       </c>
-      <c r="AU33">
+      <c r="AW35">
         <v>15</v>
       </c>
-      <c r="AV33">
+      <c r="AX35">
         <v>15</v>
       </c>
-      <c r="AW33" t="s">
+      <c r="AY35" t="s">
         <v>85</v>
       </c>
-      <c r="AY33">
-        <v>50</v>
-      </c>
-      <c r="AZ33">
-        <v>50</v>
-      </c>
-      <c r="BA33" t="s">
+      <c r="BA35">
+        <v>50</v>
+      </c>
+      <c r="BB35">
+        <v>50</v>
+      </c>
+      <c r="BC35" t="s">
         <v>71</v>
       </c>
-      <c r="BC33">
+      <c r="BE35">
         <v>20</v>
       </c>
-      <c r="BD33">
+      <c r="BF35">
         <v>20</v>
       </c>
-      <c r="BE33" t="s">
+      <c r="BG35" t="s">
         <v>107</v>
       </c>
-      <c r="BG33">
+      <c r="BI35">
         <v>100</v>
       </c>
-      <c r="BH33">
+      <c r="BJ35">
         <v>100</v>
       </c>
-      <c r="BQ33">
+      <c r="BS35">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
         <v>181</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C36" t="s">
         <v>181</v>
       </c>
-      <c r="C34">
+      <c r="D36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36">
         <v>100</v>
       </c>
-      <c r="D34">
+      <c r="F36">
         <v>20</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G36" t="s">
         <v>79</v>
       </c>
-      <c r="G34">
-        <v>50</v>
-      </c>
-      <c r="H34">
-        <v>50</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="I36">
+        <v>50</v>
+      </c>
+      <c r="J36">
+        <v>50</v>
+      </c>
+      <c r="O36" t="s">
         <v>96</v>
       </c>
-      <c r="O34">
+      <c r="Q36">
         <v>75</v>
       </c>
-      <c r="P34">
+      <c r="R36">
         <v>75</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AM36" t="s">
         <v>165</v>
       </c>
-      <c r="AM34">
+      <c r="AO36">
         <v>1</v>
       </c>
-      <c r="AN34">
+      <c r="AP36">
         <v>1</v>
       </c>
-      <c r="AO34" t="s">
+      <c r="AQ36" t="s">
         <v>129</v>
       </c>
-      <c r="AQ34">
-        <v>50</v>
-      </c>
-      <c r="AR34">
-        <v>50</v>
-      </c>
-      <c r="AS34" t="s">
+      <c r="AS36">
+        <v>50</v>
+      </c>
+      <c r="AT36">
+        <v>50</v>
+      </c>
+      <c r="AU36" t="s">
         <v>107</v>
       </c>
-      <c r="AU34">
-        <v>50</v>
-      </c>
-      <c r="AV34">
-        <v>50</v>
-      </c>
-      <c r="AW34" t="s">
+      <c r="AW36">
+        <v>50</v>
+      </c>
+      <c r="AX36">
+        <v>50</v>
+      </c>
+      <c r="AY36" t="s">
         <v>92</v>
       </c>
-      <c r="AY34">
+      <c r="BA36">
         <v>4</v>
       </c>
-      <c r="AZ34">
+      <c r="BB36">
         <v>4</v>
       </c>
-      <c r="BQ34">
+      <c r="BS36">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:BS3" xr:uid="{C70467D3-4D81-4957-8D16-812E498BE8DD}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4028,12 +4736,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
